--- a/data/trans_orig/dukeGLOBAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,14</t>
+          <t>45,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,53</t>
+          <t>44,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,77</t>
+          <t>45,01</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,27; 45,94</t>
+          <t>44,55; 46,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,99; 45,14</t>
+          <t>44,21; 45,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 45,22</t>
+          <t>44,55; 45,45</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,48</t>
+          <t>49,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,1</t>
+          <t>48,47</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>48,29</t>
+          <t>48,9</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,08; 49,04</t>
+          <t>48,44; 51,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,76; 48,42</t>
+          <t>48,02; 49,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,03; 48,58</t>
+          <t>48,39; 49,94</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>49,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,15</t>
+          <t>50,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>49,91</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,95; 50,13</t>
+          <t>48,95; 50,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,51</t>
+          <t>49,71; 50,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,51; 50,25</t>
+          <t>49,51; 50,29</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,17</t>
+          <t>48,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,7</t>
+          <t>48,0</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>47,92</t>
+          <t>48,38</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,83; 48,55</t>
+          <t>48,15; 50,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,44; 47,97</t>
+          <t>47,71; 48,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,7; 48,13</t>
+          <t>48,05; 49,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeGLOBAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Estudios-trans_orig.xlsx
@@ -724,47 +724,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,89; 46,0</t>
+          <t>44,94; 46,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,58; 47,7</t>
+          <t>46,52; 47,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,34</t>
+          <t>45,2; 46,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 46,22</t>
+          <t>44,54; 46,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,83; 44,87</t>
+          <t>43,9; 44,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,15; 47,05</t>
+          <t>46,2; 47,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,11; 45,24</t>
+          <t>44,08; 45,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,21; 45,34</t>
+          <t>44,14; 45,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,47; 45,26</t>
+          <t>44,5; 45,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,77; 45,55</t>
+          <t>44,75; 45,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 45,45</t>
+          <t>44,52; 45,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,23; 48,89</t>
+          <t>48,22; 48,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,46; 49,15</t>
+          <t>48,5; 49,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,54; 47,12</t>
+          <t>46,53; 47,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,44; 51,22</t>
+          <t>48,52; 51,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,21; 48,01</t>
+          <t>47,22; 48,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,42; 48,12</t>
+          <t>47,38; 48,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,52; 47,09</t>
+          <t>46,49; 47,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,02; 49,21</t>
+          <t>48,06; 49,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,87; 48,37</t>
+          <t>47,87; 48,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,08; 48,55</t>
+          <t>48,08; 48,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,61; 47,02</t>
+          <t>46,58; 47,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,39; 49,94</t>
+          <t>48,4; 50,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,03; 49,29</t>
+          <t>48,0; 49,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,72; 50,11</t>
+          <t>48,75; 50,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,17</t>
+          <t>48,07; 49,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,95; 50,19</t>
+          <t>48,97; 50,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,95; 49,31</t>
+          <t>47,91; 49,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,27; 50,41</t>
+          <t>49,31; 50,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,0; 49,08</t>
+          <t>48,02; 49,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,71; 50,56</t>
+          <t>49,77; 50,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,18; 49,13</t>
+          <t>48,21; 49,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,24; 50,09</t>
+          <t>49,24; 50,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>48,22; 48,98</t>
+          <t>48,16; 48,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,51; 50,29</t>
+          <t>49,5; 50,25</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,31; 47,89</t>
+          <t>47,33; 47,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,52 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,66; 47,13</t>
+          <t>46,67; 47,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,15; 50,24</t>
+          <t>48,18; 50,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,23; 46,84</t>
+          <t>46,21; 46,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,35; 47,84</t>
+          <t>47,34; 47,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,24; 46,72</t>
+          <t>46,24; 46,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,53</t>
+          <t>47,74; 48,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,84; 47,25</t>
+          <t>46,84; 47,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,82; 48,17</t>
+          <t>47,82; 48,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,51; 46,86</t>
+          <t>46,49; 46,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,15</t>
+          <t>48,03; 49,35</t>
         </is>
       </c>
     </row>
